--- a/data training.xlsx
+++ b/data training.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="338">
   <si>
     <t>Hue</t>
   </si>
@@ -795,14 +795,265 @@
   </si>
   <si>
     <t>kelas</t>
+  </si>
+  <si>
+    <t>0.119938111671395</t>
+  </si>
+  <si>
+    <t>0.119651018173936</t>
+  </si>
+  <si>
+    <t>0.0927548089316941</t>
+  </si>
+  <si>
+    <t>0.0884875877368198</t>
+  </si>
+  <si>
+    <t>0.0988552792750343</t>
+  </si>
+  <si>
+    <t>0.112695049922119</t>
+  </si>
+  <si>
+    <t>0.102318754626672</t>
+  </si>
+  <si>
+    <t>0.101180803893167</t>
+  </si>
+  <si>
+    <t>0.118842911303513</t>
+  </si>
+  <si>
+    <t>0.120330063674648</t>
+  </si>
+  <si>
+    <t>0.101052083535024</t>
+  </si>
+  <si>
+    <t>0.114179211027201</t>
+  </si>
+  <si>
+    <t>0.104435025102769</t>
+  </si>
+  <si>
+    <t>0.117759997542289</t>
+  </si>
+  <si>
+    <t>0.105359667492004</t>
+  </si>
+  <si>
+    <t>0.114639029405349</t>
+  </si>
+  <si>
+    <t>0.103223396309154</t>
+  </si>
+  <si>
+    <t>0.116860009198052</t>
+  </si>
+  <si>
+    <t>0.108718507292940</t>
+  </si>
+  <si>
+    <t>0.113674326012512</t>
+  </si>
+  <si>
+    <t>0.111552757913667</t>
+  </si>
+  <si>
+    <t>0.120115626901967</t>
+  </si>
+  <si>
+    <t>0.107466933754964</t>
+  </si>
+  <si>
+    <t>0.110432734097733</t>
+  </si>
+  <si>
+    <t>0.109312116990955</t>
+  </si>
+  <si>
+    <t>0.117367331044047</t>
+  </si>
+  <si>
+    <t>0.122269951098734</t>
+  </si>
+  <si>
+    <t>0.101501950347967</t>
+  </si>
+  <si>
+    <t>0.113432034788338</t>
+  </si>
+  <si>
+    <t>0.112389407264026</t>
+  </si>
+  <si>
+    <t>0.109633922739989</t>
+  </si>
+  <si>
+    <t>0.113106429967095</t>
+  </si>
+  <si>
+    <t>0.103090148871638</t>
+  </si>
+  <si>
+    <t>0.133427269624946</t>
+  </si>
+  <si>
+    <t>0.124638218818929</t>
+  </si>
+  <si>
+    <t>0.337639705659913</t>
+  </si>
+  <si>
+    <t>0.345503860042302</t>
+  </si>
+  <si>
+    <t>0.346365396443870</t>
+  </si>
+  <si>
+    <t>0.348071543161159</t>
+  </si>
+  <si>
+    <t>0.347392572381043</t>
+  </si>
+  <si>
+    <t>0.351421162478298</t>
+  </si>
+  <si>
+    <t>0.351121356428030</t>
+  </si>
+  <si>
+    <t>0.351268067392927</t>
+  </si>
+  <si>
+    <t>0.355458659088067</t>
+  </si>
+  <si>
+    <t>0.354765921986768</t>
+  </si>
+  <si>
+    <t>0.352807463502036</t>
+  </si>
+  <si>
+    <t>0.339957728173490</t>
+  </si>
+  <si>
+    <t>0.352956028503607</t>
+  </si>
+  <si>
+    <t>0.352353014336063</t>
+  </si>
+  <si>
+    <t>0.352668466623594</t>
+  </si>
+  <si>
+    <t>0.352689146517591</t>
+  </si>
+  <si>
+    <t>0.353592059844581</t>
+  </si>
+  <si>
+    <t>0.352621853723976</t>
+  </si>
+  <si>
+    <t>0.356196403155095</t>
+  </si>
+  <si>
+    <t>0.320314980075925</t>
+  </si>
+  <si>
+    <t>0.318172954568793</t>
+  </si>
+  <si>
+    <t>0.316883945377002</t>
+  </si>
+  <si>
+    <t>0.336671154732629</t>
+  </si>
+  <si>
+    <t>0.314426093285489</t>
+  </si>
+  <si>
+    <t>0.315346674574803</t>
+  </si>
+  <si>
+    <t>0.312907213369265</t>
+  </si>
+  <si>
+    <t>0.310926275978651</t>
+  </si>
+  <si>
+    <t>0.310048302790910</t>
+  </si>
+  <si>
+    <t>0.308317665013321</t>
+  </si>
+  <si>
+    <t>0.308576237870950</t>
+  </si>
+  <si>
+    <t>0.324398738228514</t>
+  </si>
+  <si>
+    <t>0.328034786980802</t>
+  </si>
+  <si>
+    <t>0.326958430222380</t>
+  </si>
+  <si>
+    <t>0.335643971623637</t>
+  </si>
+  <si>
+    <t>0.327604696620053</t>
+  </si>
+  <si>
+    <t>0.329550737381064</t>
+  </si>
+  <si>
+    <t>0.331028798492786</t>
+  </si>
+  <si>
+    <t>0.334604336296765</t>
+  </si>
+  <si>
+    <t>0.334595362605110</t>
+  </si>
+  <si>
+    <t>0.335727963508596</t>
+  </si>
+  <si>
+    <t>0.335631389466778</t>
+  </si>
+  <si>
+    <t>0.335305951133797</t>
+  </si>
+  <si>
+    <t>0.343920940477163</t>
+  </si>
+  <si>
+    <t>0.343912478011183</t>
+  </si>
+  <si>
+    <t>0.345617803622002</t>
+  </si>
+  <si>
+    <t>hue matang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -836,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,6 +1099,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H87"/>
+  <dimension ref="A2:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,9 +1393,10 @@
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1162,8 +1415,21 @@
       <c r="F2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1180,8 +1446,11 @@
         <v>1</v>
       </c>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1197,8 +1466,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1214,8 +1486,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1231,8 +1506,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1248,8 +1526,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1265,8 +1546,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1282,8 +1566,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1299,8 +1586,11 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1316,8 +1606,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1333,8 +1626,11 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1350,8 +1646,11 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1367,8 +1666,11 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1384,8 +1686,11 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1401,8 +1706,11 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1418,8 +1726,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1435,8 +1746,11 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1452,8 +1766,11 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1469,8 +1786,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1486,8 +1806,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1503,8 +1826,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1520,8 +1846,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1537,8 +1866,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1554,8 +1886,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1571,8 +1906,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1589,8 +1927,11 @@
         <v>1</v>
       </c>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1606,8 +1947,11 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1623,8 +1967,11 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1640,8 +1987,11 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1657,8 +2007,11 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1674,8 +2027,11 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1691,8 +2047,11 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1708,8 +2067,11 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1725,8 +2087,11 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1742,8 +2107,11 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1759,8 +2127,11 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1776,8 +2147,11 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1793,8 +2167,11 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1810,8 +2187,11 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1827,8 +2207,11 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1844,8 +2227,11 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1861,8 +2247,11 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1878,8 +2267,11 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1895,8 +2287,11 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>1</v>
       </c>
@@ -1913,8 +2308,11 @@
       <c r="F46" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -1930,8 +2328,11 @@
       <c r="F47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3</v>
       </c>
@@ -1947,8 +2348,11 @@
       <c r="F48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -1964,8 +2368,11 @@
       <c r="F49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>5</v>
       </c>
@@ -1981,8 +2388,11 @@
       <c r="F50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>6</v>
       </c>
@@ -1998,8 +2408,11 @@
       <c r="F51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7</v>
       </c>
@@ -2015,8 +2428,11 @@
       <c r="F52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>8</v>
       </c>
@@ -2032,8 +2448,11 @@
       <c r="F53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>9</v>
       </c>
@@ -2049,8 +2468,11 @@
       <c r="F54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2066,8 +2488,11 @@
       <c r="F55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11</v>
       </c>
@@ -2083,8 +2508,11 @@
       <c r="F56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>12</v>
       </c>
@@ -2100,8 +2528,11 @@
       <c r="F57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>13</v>
       </c>
@@ -2117,8 +2548,11 @@
       <c r="F58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>14</v>
       </c>
@@ -2134,8 +2568,11 @@
       <c r="F59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>15</v>
       </c>
@@ -2151,8 +2588,11 @@
       <c r="F60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>16</v>
       </c>
@@ -2168,8 +2608,11 @@
       <c r="F61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>17</v>
       </c>
@@ -2185,8 +2628,11 @@
       <c r="F62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>18</v>
       </c>
@@ -2202,8 +2648,11 @@
       <c r="F63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>19</v>
       </c>
@@ -2219,8 +2668,11 @@
       <c r="F64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>20</v>
       </c>
@@ -2236,8 +2688,11 @@
       <c r="F65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>21</v>
       </c>
@@ -2253,8 +2708,11 @@
       <c r="F66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>22</v>
       </c>
@@ -2270,8 +2728,11 @@
       <c r="F67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>23</v>
       </c>
@@ -2287,8 +2748,11 @@
       <c r="F68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>24</v>
       </c>
@@ -2304,8 +2768,11 @@
       <c r="F69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>25</v>
       </c>
@@ -2321,8 +2788,11 @@
       <c r="F70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>26</v>
       </c>
@@ -2338,8 +2808,11 @@
       <c r="F71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>27</v>
       </c>
@@ -2355,8 +2828,11 @@
       <c r="F72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>28</v>
       </c>
@@ -2372,8 +2848,11 @@
       <c r="F73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>29</v>
       </c>
@@ -2389,8 +2868,11 @@
       <c r="F74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>30</v>
       </c>
@@ -2406,8 +2888,11 @@
       <c r="F75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>31</v>
       </c>
@@ -2423,8 +2908,11 @@
       <c r="F76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>32</v>
       </c>
@@ -2440,8 +2928,11 @@
       <c r="F77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>33</v>
       </c>
@@ -2457,8 +2948,11 @@
       <c r="F78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>1</v>
       </c>
@@ -2475,8 +2969,11 @@
       <c r="F79" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -2492,8 +2989,11 @@
       <c r="F80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>3</v>
       </c>
@@ -2509,8 +3009,11 @@
       <c r="F81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>4</v>
       </c>
@@ -2526,8 +3029,11 @@
       <c r="F82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -2544,7 +3050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>6</v>
       </c>
@@ -2561,7 +3067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>7</v>
       </c>
@@ -2578,7 +3084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>8</v>
       </c>
@@ -2595,7 +3101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>9</v>
       </c>
